--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F9-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F9-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4394276666666667</v>
+        <v>0.657073</v>
       </c>
       <c r="H2">
-        <v>1.318283</v>
+        <v>1.971219</v>
       </c>
       <c r="I2">
-        <v>0.6309762956049347</v>
+        <v>0.576753533868729</v>
       </c>
       <c r="J2">
-        <v>0.6309762956049347</v>
+        <v>0.576753533868729</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N2">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q2">
-        <v>2.963823749238556</v>
+        <v>4.143401148758</v>
       </c>
       <c r="R2">
-        <v>26.674413743147</v>
+        <v>37.290610338822</v>
       </c>
       <c r="S2">
-        <v>0.006620664356337202</v>
+        <v>0.00782164600206361</v>
       </c>
       <c r="T2">
-        <v>0.006620664356337204</v>
+        <v>0.007821646002063608</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4394276666666667</v>
+        <v>0.657073</v>
       </c>
       <c r="H3">
-        <v>1.318283</v>
+        <v>1.971219</v>
       </c>
       <c r="I3">
-        <v>0.6309762956049347</v>
+        <v>0.576753533868729</v>
       </c>
       <c r="J3">
-        <v>0.6309762956049347</v>
+        <v>0.576753533868729</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P3">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q3">
-        <v>80.20947126047791</v>
+        <v>119.9366401058104</v>
       </c>
       <c r="R3">
-        <v>721.8852413443011</v>
+        <v>1079.429760952293</v>
       </c>
       <c r="S3">
-        <v>0.1791739429685487</v>
+        <v>0.2264086695698661</v>
       </c>
       <c r="T3">
-        <v>0.1791739429685488</v>
+        <v>0.226408669569866</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4394276666666667</v>
+        <v>0.657073</v>
       </c>
       <c r="H4">
-        <v>1.318283</v>
+        <v>1.971219</v>
       </c>
       <c r="I4">
-        <v>0.6309762956049347</v>
+        <v>0.576753533868729</v>
       </c>
       <c r="J4">
-        <v>0.6309762956049347</v>
+        <v>0.576753533868729</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N4">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q4">
-        <v>109.4758952353632</v>
+        <v>83.708730137689</v>
       </c>
       <c r="R4">
-        <v>985.283057118269</v>
+        <v>753.3785712392011</v>
       </c>
       <c r="S4">
-        <v>0.2445500201046322</v>
+        <v>0.1580199529112786</v>
       </c>
       <c r="T4">
-        <v>0.2445500201046322</v>
+        <v>0.1580199529112786</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4394276666666667</v>
+        <v>0.657073</v>
       </c>
       <c r="H5">
-        <v>1.318283</v>
+        <v>1.971219</v>
       </c>
       <c r="I5">
-        <v>0.6309762956049347</v>
+        <v>0.576753533868729</v>
       </c>
       <c r="J5">
-        <v>0.6309762956049347</v>
+        <v>0.576753533868729</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N5">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q5">
-        <v>7.672600994076891</v>
+        <v>12.76298682809733</v>
       </c>
       <c r="R5">
-        <v>69.05340894669202</v>
+        <v>114.866881452876</v>
       </c>
       <c r="S5">
-        <v>0.01713924990814074</v>
+        <v>0.0240931450550719</v>
       </c>
       <c r="T5">
-        <v>0.01713924990814074</v>
+        <v>0.02409314505507189</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4394276666666667</v>
+        <v>0.657073</v>
       </c>
       <c r="H6">
-        <v>1.318283</v>
+        <v>1.971219</v>
       </c>
       <c r="I6">
-        <v>0.6309762956049347</v>
+        <v>0.576753533868729</v>
       </c>
       <c r="J6">
-        <v>0.6309762956049347</v>
+        <v>0.576753533868729</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N6">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q6">
-        <v>82.1426910949219</v>
+        <v>84.97488593503668</v>
       </c>
       <c r="R6">
-        <v>739.2842198542971</v>
+        <v>764.77397341533</v>
       </c>
       <c r="S6">
-        <v>0.1834924182672759</v>
+        <v>0.1604101203304489</v>
       </c>
       <c r="T6">
-        <v>0.1834924182672759</v>
+        <v>0.1604101203304489</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2569973333333334</v>
+        <v>0.4821883333333334</v>
       </c>
       <c r="H7">
-        <v>0.770992</v>
+        <v>1.446565</v>
       </c>
       <c r="I7">
-        <v>0.3690237043950653</v>
+        <v>0.423246466131271</v>
       </c>
       <c r="J7">
-        <v>0.3690237043950653</v>
+        <v>0.423246466131271</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N7">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q7">
-        <v>1.733379251703111</v>
+        <v>3.040605372996667</v>
       </c>
       <c r="R7">
-        <v>15.600413265328</v>
+        <v>27.36544835697</v>
       </c>
       <c r="S7">
-        <v>0.00387206635708807</v>
+        <v>0.005739859117112379</v>
       </c>
       <c r="T7">
-        <v>0.00387206635708807</v>
+        <v>0.005739859117112378</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2569973333333334</v>
+        <v>0.4821883333333334</v>
       </c>
       <c r="H8">
-        <v>0.770992</v>
+        <v>1.446565</v>
       </c>
       <c r="I8">
-        <v>0.3690237043950653</v>
+        <v>0.423246466131271</v>
       </c>
       <c r="J8">
-        <v>0.3690237043950653</v>
+        <v>0.423246466131271</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P8">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q8">
-        <v>46.91015560851378</v>
+        <v>88.01464768483946</v>
       </c>
       <c r="R8">
-        <v>422.191400476624</v>
+        <v>792.131829163555</v>
       </c>
       <c r="S8">
-        <v>0.1047890905345873</v>
+        <v>0.1661483869099949</v>
       </c>
       <c r="T8">
-        <v>0.1047890905345873</v>
+        <v>0.1661483869099949</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2569973333333334</v>
+        <v>0.4821883333333334</v>
       </c>
       <c r="H9">
-        <v>0.770992</v>
+        <v>1.446565</v>
       </c>
       <c r="I9">
-        <v>0.3690237043950653</v>
+        <v>0.423246466131271</v>
       </c>
       <c r="J9">
-        <v>0.3690237043950653</v>
+        <v>0.423246466131271</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N9">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q9">
-        <v>64.02649462922845</v>
+        <v>61.42905441334834</v>
       </c>
       <c r="R9">
-        <v>576.238451663056</v>
+        <v>552.8614897201351</v>
       </c>
       <c r="S9">
-        <v>0.143024000992587</v>
+        <v>0.1159618150916279</v>
       </c>
       <c r="T9">
-        <v>0.143024000992587</v>
+        <v>0.1159618150916279</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2569973333333334</v>
+        <v>0.4821883333333334</v>
       </c>
       <c r="H10">
-        <v>0.770992</v>
+        <v>1.446565</v>
       </c>
       <c r="I10">
-        <v>0.3690237043950653</v>
+        <v>0.423246466131271</v>
       </c>
       <c r="J10">
-        <v>0.3690237043950653</v>
+        <v>0.423246466131271</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N10">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q10">
-        <v>4.487286861489778</v>
+        <v>9.366026829584445</v>
       </c>
       <c r="R10">
-        <v>40.385581753408</v>
+        <v>84.29424146626</v>
       </c>
       <c r="S10">
-        <v>0.01002381473869969</v>
+        <v>0.01768058261237847</v>
       </c>
       <c r="T10">
-        <v>0.01002381473869969</v>
+        <v>0.01768058261237847</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.2569973333333334</v>
+        <v>0.4821883333333334</v>
       </c>
       <c r="H11">
-        <v>0.770992</v>
+        <v>1.446565</v>
       </c>
       <c r="I11">
-        <v>0.3690237043950653</v>
+        <v>0.423246466131271</v>
       </c>
       <c r="J11">
-        <v>0.3690237043950653</v>
+        <v>0.423246466131271</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N11">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q11">
-        <v>48.04079070476979</v>
+        <v>62.35821381217224</v>
       </c>
       <c r="R11">
-        <v>432.3671163429281</v>
+        <v>561.2239243095501</v>
       </c>
       <c r="S11">
-        <v>0.1073147317721032</v>
+        <v>0.1177158224001574</v>
       </c>
       <c r="T11">
-        <v>0.1073147317721032</v>
+        <v>0.1177158224001573</v>
       </c>
     </row>
   </sheetData>
